--- a/计算机应用基础/第4章excel/公式和函数/公式函数练习.xlsx
+++ b/计算机应用基础/第4章excel/公式和函数/公式函数练习.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="练习2" sheetId="2" r:id="rId2"/>
     <sheet name="练习3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -513,6 +513,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -560,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +810,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L45"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -878,10 +881,7 @@
       <c r="I2" s="2">
         <v>71</v>
       </c>
-      <c r="J2" s="4">
-        <f>SUM(D2:I2)</f>
-        <v>510</v>
-      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
     </row>
@@ -913,10 +913,7 @@
       <c r="I3" s="2">
         <v>87</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J45" si="0">SUM(D3:I3)</f>
-        <v>494</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
@@ -946,10 +943,7 @@
       <c r="I4" s="2">
         <v>91</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>488.5</v>
-      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
     </row>
@@ -979,10 +973,7 @@
       <c r="I5" s="2">
         <v>66</v>
       </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
     </row>
@@ -1012,14 +1003,11 @@
       <c r="I6" s="2">
         <v>99</v>
       </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>498</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
       <c r="M6" t="str">
-        <f t="shared" ref="M6:M45" si="1">IF(AND(J6&gt;=500,E6&gt;=90),"满足条件","")</f>
+        <f t="shared" ref="M6:M45" si="0">IF(AND(J6&gt;=500,E6&gt;=90),"满足条件","")</f>
         <v/>
       </c>
     </row>
@@ -1049,14 +1037,11 @@
       <c r="I7" s="2">
         <v>57</v>
       </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>491.5</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1086,14 +1071,11 @@
       <c r="I8" s="2">
         <v>58</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>487</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1123,14 +1105,11 @@
       <c r="I9" s="2">
         <v>94</v>
       </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>489.5</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1160,14 +1139,11 @@
       <c r="I10" s="2">
         <v>90</v>
       </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>491</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1197,14 +1173,11 @@
       <c r="I11" s="2">
         <v>93</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>514</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1234,14 +1207,11 @@
       <c r="I12" s="2">
         <v>61</v>
       </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>501</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1271,14 +1241,11 @@
       <c r="I13" s="2">
         <v>78</v>
       </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>510</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1308,14 +1275,11 @@
       <c r="I14" s="2">
         <v>87.5</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>504</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1345,14 +1309,11 @@
       <c r="I15" s="2">
         <v>70</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>537</v>
-      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="6"/>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1382,14 +1343,11 @@
       <c r="I16" s="2">
         <v>78</v>
       </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>500.5</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1419,14 +1377,11 @@
       <c r="I17" s="2">
         <v>79</v>
       </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>455</v>
-      </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1456,14 +1411,11 @@
       <c r="I18" s="2">
         <v>65</v>
       </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>471</v>
-      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1493,14 +1445,11 @@
       <c r="I19" s="2">
         <v>65.5</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>449.5</v>
-      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1530,14 +1479,11 @@
       <c r="I20" s="2">
         <v>96.5</v>
       </c>
-      <c r="J20" s="4">
-        <f t="shared" si="0"/>
-        <v>479</v>
-      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1567,14 +1513,11 @@
       <c r="I21" s="2">
         <v>78</v>
       </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>449.5</v>
-      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1604,14 +1547,11 @@
       <c r="I22" s="2">
         <v>90</v>
       </c>
-      <c r="J22" s="4">
-        <f t="shared" si="0"/>
-        <v>475.5</v>
-      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1641,14 +1581,11 @@
       <c r="I23" s="2">
         <v>55</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" si="0"/>
-        <v>456</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1678,14 +1615,11 @@
       <c r="I24" s="2">
         <v>78</v>
       </c>
-      <c r="J24" s="4">
-        <f t="shared" si="0"/>
-        <v>450.5</v>
-      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1715,14 +1649,11 @@
       <c r="I25" s="2">
         <v>93</v>
       </c>
-      <c r="J25" s="4">
-        <f t="shared" si="0"/>
-        <v>479</v>
-      </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1752,14 +1683,11 @@
       <c r="I26" s="2">
         <v>85</v>
       </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>460.5</v>
-      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1789,14 +1717,11 @@
       <c r="I27" s="2">
         <v>69</v>
       </c>
-      <c r="J27" s="4">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1826,14 +1751,11 @@
       <c r="I28" s="2">
         <v>76.5</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" si="0"/>
-        <v>463.5</v>
-      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1863,14 +1785,11 @@
       <c r="I29" s="2">
         <v>84</v>
       </c>
-      <c r="J29" s="4">
-        <f t="shared" si="0"/>
-        <v>477</v>
-      </c>
+      <c r="J29" s="4"/>
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1900,14 +1819,11 @@
       <c r="I30" s="2">
         <v>61.5</v>
       </c>
-      <c r="J30" s="4">
-        <f t="shared" si="0"/>
-        <v>472.5</v>
-      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1937,14 +1853,11 @@
       <c r="I31" s="2">
         <v>76</v>
       </c>
-      <c r="J31" s="4">
-        <f t="shared" si="0"/>
-        <v>468.5</v>
-      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1974,14 +1887,11 @@
       <c r="I32" s="2">
         <v>84.5</v>
       </c>
-      <c r="J32" s="4">
-        <f t="shared" si="0"/>
-        <v>435.5</v>
-      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="5"/>
       <c r="L32" s="6"/>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2011,14 +1921,11 @@
       <c r="I33" s="2">
         <v>61.5</v>
       </c>
-      <c r="J33" s="4">
-        <f t="shared" si="0"/>
-        <v>404.5</v>
-      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="5"/>
       <c r="L33" s="6"/>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2048,14 +1955,11 @@
       <c r="I34" s="2">
         <v>61</v>
       </c>
-      <c r="J34" s="4">
-        <f t="shared" si="0"/>
-        <v>433</v>
-      </c>
+      <c r="J34" s="4"/>
       <c r="K34" s="5"/>
       <c r="L34" s="6"/>
       <c r="M34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2085,14 +1989,11 @@
       <c r="I35" s="2">
         <v>85</v>
       </c>
-      <c r="J35" s="4">
-        <f t="shared" si="0"/>
-        <v>428.5</v>
-      </c>
+      <c r="J35" s="4"/>
       <c r="K35" s="5"/>
       <c r="L35" s="6"/>
       <c r="M35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2122,14 +2023,11 @@
       <c r="I36" s="2">
         <v>85</v>
       </c>
-      <c r="J36" s="4">
-        <f t="shared" si="0"/>
-        <v>414.5</v>
-      </c>
+      <c r="J36" s="4"/>
       <c r="K36" s="5"/>
       <c r="L36" s="6"/>
       <c r="M36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2159,14 +2057,11 @@
       <c r="I37" s="2">
         <v>60.5</v>
       </c>
-      <c r="J37" s="4">
-        <f t="shared" si="0"/>
-        <v>430.5</v>
-      </c>
+      <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
       <c r="M37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2196,14 +2091,11 @@
       <c r="I38" s="2">
         <v>85</v>
       </c>
-      <c r="J38" s="4">
-        <f t="shared" si="0"/>
-        <v>437.5</v>
-      </c>
+      <c r="J38" s="4"/>
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
       <c r="M38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2233,14 +2125,11 @@
       <c r="I39" s="2">
         <v>83.5</v>
       </c>
-      <c r="J39" s="4">
-        <f t="shared" si="0"/>
-        <v>437.5</v>
-      </c>
+      <c r="J39" s="4"/>
       <c r="K39" s="5"/>
       <c r="L39" s="6"/>
       <c r="M39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2270,14 +2159,11 @@
       <c r="I40" s="2">
         <v>62</v>
       </c>
-      <c r="J40" s="4">
-        <f t="shared" si="0"/>
-        <v>431.5</v>
-      </c>
+      <c r="J40" s="4"/>
       <c r="K40" s="5"/>
       <c r="L40" s="6"/>
       <c r="M40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2307,14 +2193,11 @@
       <c r="I41" s="2">
         <v>59</v>
       </c>
-      <c r="J41" s="4">
-        <f t="shared" si="0"/>
-        <v>429</v>
-      </c>
+      <c r="J41" s="4"/>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
       <c r="M41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2344,14 +2227,11 @@
       <c r="I42" s="2">
         <v>76.5</v>
       </c>
-      <c r="J42" s="4">
-        <f t="shared" si="0"/>
-        <v>443</v>
-      </c>
+      <c r="J42" s="4"/>
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
       <c r="M42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2381,14 +2261,11 @@
       <c r="I43" s="2">
         <v>73.5</v>
       </c>
-      <c r="J43" s="4">
-        <f t="shared" si="0"/>
-        <v>425.5</v>
-      </c>
+      <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="6"/>
       <c r="M43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2418,14 +2295,11 @@
       <c r="I44" s="2">
         <v>67</v>
       </c>
-      <c r="J44" s="4">
-        <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
+      <c r="J44" s="4"/>
       <c r="K44" s="5"/>
       <c r="L44" s="6"/>
       <c r="M44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2455,14 +2329,11 @@
       <c r="I45" s="2">
         <v>69</v>
       </c>
-      <c r="J45" s="4">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
+      <c r="J45" s="4"/>
       <c r="K45" s="5"/>
       <c r="L45" s="6"/>
       <c r="M45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2735,6 +2606,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
